--- a/Auswertung_Studie.xlsx
+++ b/Auswertung_Studie.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saski\Documents\2025\MB\WiSe2526\MMI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mweiler\Documents\GitHub\MMI_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94EFB08-B5C5-404B-A697-D4CFF579F2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8967A2DE-E276-4850-A476-1897A6DF09A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-15540" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="0" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstTry" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="76">
   <si>
     <t>Probandennr.</t>
   </si>
@@ -257,9 +257,6 @@
     <t>Proband Nr.</t>
   </si>
   <si>
-    <t>30 min</t>
-  </si>
-  <si>
     <t>1-2</t>
   </si>
   <si>
@@ -273,6 +270,9 @@
   </si>
   <si>
     <t>Crosscountry</t>
+  </si>
+  <si>
+    <t>keine</t>
   </si>
 </sst>
 </file>
@@ -288,7 +288,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +304,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -493,6 +499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -511,13 +518,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -806,32 +808,32 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -902,7 +904,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>25</v>
       </c>
@@ -973,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24</v>
       </c>
@@ -1044,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>23</v>
       </c>
@@ -1115,7 +1117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>22</v>
       </c>
@@ -1186,7 +1188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>21</v>
       </c>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -1323,51 +1325,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCECD05C-0FAE-450F-B8C8-CFBEC35897B9}">
-  <dimension ref="A1:BA27"/>
+  <dimension ref="A1:BD27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+      <selection activeCell="AE31" sqref="AE31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.44140625" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="14" width="3.5546875" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" customWidth="1"/>
-    <col min="18" max="19" width="5.33203125" customWidth="1"/>
-    <col min="20" max="21" width="7.6640625" customWidth="1"/>
-    <col min="22" max="26" width="5" customWidth="1"/>
-    <col min="27" max="27" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.21875" customWidth="1"/>
-    <col min="29" max="29" width="9.44140625" customWidth="1"/>
-    <col min="30" max="30" width="5.109375" customWidth="1"/>
-    <col min="31" max="31" width="6.5546875" customWidth="1"/>
-    <col min="32" max="33" width="4.5546875" customWidth="1"/>
-    <col min="34" max="34" width="6.5546875" customWidth="1"/>
-    <col min="35" max="35" width="14.5546875" customWidth="1"/>
-    <col min="36" max="36" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.109375" customWidth="1"/>
-    <col min="38" max="39" width="6.33203125" customWidth="1"/>
-    <col min="40" max="40" width="7.109375" customWidth="1"/>
-    <col min="41" max="41" width="10.5546875" customWidth="1"/>
-    <col min="42" max="43" width="6.44140625" customWidth="1"/>
-    <col min="44" max="45" width="8.6640625" customWidth="1"/>
-    <col min="46" max="46" width="10.44140625" customWidth="1"/>
-    <col min="47" max="51" width="6.88671875" customWidth="1"/>
-    <col min="52" max="52" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.42578125" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="14" width="3.5703125" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" customWidth="1"/>
+    <col min="18" max="19" width="5.28515625" customWidth="1"/>
+    <col min="20" max="21" width="7.7109375" customWidth="1"/>
+    <col min="22" max="28" width="5" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.28515625" customWidth="1"/>
+    <col min="31" max="31" width="9.42578125" customWidth="1"/>
+    <col min="32" max="32" width="5.140625" customWidth="1"/>
+    <col min="33" max="33" width="6.5703125" customWidth="1"/>
+    <col min="34" max="35" width="4.5703125" customWidth="1"/>
+    <col min="36" max="36" width="6.5703125" customWidth="1"/>
+    <col min="37" max="37" width="14.5703125" customWidth="1"/>
+    <col min="38" max="38" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.140625" customWidth="1"/>
+    <col min="40" max="42" width="6.28515625" customWidth="1"/>
+    <col min="43" max="43" width="7.140625" customWidth="1"/>
+    <col min="44" max="44" width="10.5703125" customWidth="1"/>
+    <col min="45" max="46" width="6.42578125" customWidth="1"/>
+    <col min="47" max="48" width="8.7109375" customWidth="1"/>
+    <col min="49" max="49" width="10.42578125" customWidth="1"/>
+    <col min="50" max="54" width="6.85546875" customWidth="1"/>
+    <col min="55" max="55" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>69</v>
       </c>
@@ -1383,10 +1385,10 @@
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="28"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1396,79 +1398,82 @@
       <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="28"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="29"/>
       <c r="O1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="P1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="29" t="s">
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
       <c r="AA1" s="31"/>
-      <c r="AB1" s="26" t="s">
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="27" t="s">
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="3" t="s">
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AK1" s="26" t="s">
+      <c r="AM1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="27" t="s">
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="26" t="s">
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="29"/>
+      <c r="AX1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="26"/>
-      <c r="AX1" s="26"/>
-      <c r="AY1" s="26"/>
-      <c r="AZ1" s="11" t="s">
+      <c r="AY1" s="27"/>
+      <c r="AZ1" s="27"/>
+      <c r="BA1" s="27"/>
+      <c r="BB1" s="27"/>
+      <c r="BC1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:53" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="8"/>
       <c r="C2" s="5"/>
@@ -1527,81 +1532,90 @@
       <c r="Z2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AA2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AD2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AE2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AD2" s="14" t="s">
+      <c r="AF2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AG2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AF2" s="13" t="s">
+      <c r="AH2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AI2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AH2" s="17" t="s">
+      <c r="AJ2" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="13" t="s">
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL2" s="12" t="s">
+      <c r="AN2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AM2" s="12" t="s">
+      <c r="AO2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AN2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO2" s="14" t="s">
+      <c r="AP2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AP2" s="12" t="s">
+      <c r="AS2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AQ2" s="12" t="s">
+      <c r="AT2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AR2" s="13" t="s">
+      <c r="AU2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AS2" s="13" t="s">
+      <c r="AV2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AT2" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU2" s="13" t="s">
+      <c r="AW2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AV2" s="13" t="s">
+      <c r="AY2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AW2" s="13" t="s">
+      <c r="AZ2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AX2" s="13" t="s">
+      <c r="BA2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AY2" s="13" t="s">
+      <c r="BB2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="5"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="5"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>25</v>
       </c>
@@ -1656,53 +1670,56 @@
         <v>46</v>
       </c>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="10"/>
+      <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
-      <c r="AC3" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD3" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" s="25" t="s">
+        <v>46</v>
+      </c>
       <c r="AG3" s="24"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3">
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3">
         <v>5</v>
       </c>
-      <c r="AJ3" s="7">
+      <c r="AL3" s="7">
         <v>2</v>
       </c>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="AM3" s="4"/>
       <c r="AN3" s="4"/>
-      <c r="AO3" s="9"/>
+      <c r="AO3" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="AP3" s="4"/>
       <c r="AQ3" s="4"/>
-      <c r="AR3" s="4"/>
-      <c r="AS3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT3" s="10"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
       <c r="AU3" s="4"/>
       <c r="AV3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AW3" s="4"/>
+      <c r="AW3" s="10"/>
       <c r="AX3" s="4"/>
-      <c r="AY3" s="4"/>
-      <c r="AZ3" s="7">
+      <c r="AY3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="7">
         <v>7</v>
       </c>
-      <c r="BA3">
+      <c r="BD3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>24</v>
       </c>
@@ -1759,61 +1776,64 @@
         <v>46</v>
       </c>
       <c r="Z4" s="22"/>
-      <c r="AA4" s="23"/>
+      <c r="AA4" s="22"/>
       <c r="AB4" s="22"/>
-      <c r="AC4" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD4" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF4" s="25" t="s">
+        <v>46</v>
+      </c>
       <c r="AG4" s="24"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4">
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4">
         <v>8</v>
       </c>
-      <c r="AJ4" s="7">
+      <c r="AL4" s="7">
         <v>3</v>
       </c>
-      <c r="AK4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL4" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="AM4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AN4" s="22"/>
-      <c r="AO4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP4" s="22" t="s">
-        <v>46</v>
-      </c>
+      <c r="AN4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP4" s="4"/>
       <c r="AQ4" s="22"/>
-      <c r="AR4" s="22"/>
+      <c r="AR4" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="AS4" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="AT4" s="23"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="AT4" s="22"/>
+      <c r="AU4" s="22"/>
+      <c r="AV4" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW4" s="23"/>
       <c r="AX4" s="4"/>
       <c r="AY4" s="4"/>
-      <c r="AZ4" s="7">
+      <c r="AZ4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="7">
         <v>8</v>
       </c>
-      <c r="BA4">
+      <c r="BD4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23</v>
       </c>
@@ -1868,57 +1888,60 @@
         <v>46</v>
       </c>
       <c r="Z5" s="4"/>
-      <c r="AA5" s="10"/>
+      <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
-      <c r="AC5" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD5" s="25" t="s">
-        <v>46</v>
-      </c>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="4"/>
       <c r="AE5" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="23"/>
-      <c r="AI5">
+      <c r="AF5" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG5" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="23"/>
+      <c r="AK5">
         <v>1</v>
       </c>
-      <c r="AJ5" s="7">
+      <c r="AL5" s="7">
         <v>3</v>
       </c>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
       <c r="AM5" s="4"/>
-      <c r="AN5" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO5" s="21"/>
-      <c r="AP5" s="22"/>
-      <c r="AQ5" s="22"/>
-      <c r="AR5" s="22"/>
-      <c r="AS5" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT5" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="21"/>
+      <c r="AS5" s="22"/>
+      <c r="AT5" s="22"/>
+      <c r="AU5" s="22"/>
+      <c r="AV5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW5" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="AX5" s="4"/>
-      <c r="AY5" s="4"/>
-      <c r="AZ5" s="7">
+      <c r="AY5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="7">
         <v>2</v>
       </c>
-      <c r="BA5">
+      <c r="BD5">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>22</v>
       </c>
@@ -1973,53 +1996,56 @@
         <v>46</v>
       </c>
       <c r="Z6" s="4"/>
-      <c r="AA6" s="10"/>
+      <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
-      <c r="AC6" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD6" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF6" s="25" t="s">
+        <v>46</v>
+      </c>
       <c r="AG6" s="24"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6">
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="24"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6">
         <v>8</v>
       </c>
-      <c r="AJ6" s="7">
+      <c r="AL6" s="7">
         <v>1</v>
       </c>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
       <c r="AM6" s="4"/>
-      <c r="AN6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO6" s="9"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT6" s="10"/>
+      <c r="AQ6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
       <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="AV6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW6" s="10"/>
       <c r="AX6" s="4"/>
       <c r="AY6" s="4"/>
-      <c r="AZ6" s="7">
+      <c r="AZ6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="7">
         <v>9</v>
       </c>
-      <c r="BA6">
+      <c r="BD6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>21</v>
       </c>
@@ -2074,53 +2100,56 @@
         <v>46</v>
       </c>
       <c r="Z7" s="4"/>
-      <c r="AA7" s="10"/>
+      <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
-      <c r="AC7" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD7" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF7" s="25" t="s">
+        <v>46</v>
+      </c>
       <c r="AG7" s="24"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7">
+      <c r="AH7" s="24"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7">
         <v>8</v>
       </c>
-      <c r="AJ7" s="7">
+      <c r="AL7" s="7">
         <v>1</v>
       </c>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
       <c r="AM7" s="4"/>
-      <c r="AN7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO7" s="9"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT7" s="10"/>
+      <c r="AQ7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
       <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="AV7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW7" s="10"/>
       <c r="AX7" s="4"/>
       <c r="AY7" s="4"/>
-      <c r="AZ7" s="7">
+      <c r="AZ7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="7">
         <v>10</v>
       </c>
-      <c r="BA7">
+      <c r="BD7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20</v>
       </c>
@@ -2175,55 +2204,58 @@
         <v>46</v>
       </c>
       <c r="Z8" s="22"/>
-      <c r="AA8" s="23" t="s">
-        <v>68</v>
+      <c r="AA8" s="22" t="s">
+        <v>46</v>
       </c>
       <c r="AB8" s="22"/>
-      <c r="AC8" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD8" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE8" s="24"/>
-      <c r="AF8" s="24"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF8" s="25" t="s">
+        <v>46</v>
+      </c>
       <c r="AG8" s="24"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8">
+      <c r="AH8" s="24"/>
+      <c r="AI8" s="24"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8">
         <v>8</v>
       </c>
-      <c r="AJ8" s="7">
+      <c r="AL8" s="7">
         <v>1</v>
       </c>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="9"/>
-      <c r="AP8" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="AN8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="10"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT8" s="4"/>
       <c r="AU8" s="4"/>
       <c r="AV8" s="4"/>
-      <c r="AW8" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="AW8" s="10"/>
       <c r="AX8" s="4"/>
       <c r="AY8" s="4"/>
-      <c r="AZ8" s="7">
+      <c r="AZ8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="7">
         <v>10</v>
       </c>
-      <c r="BA8">
+      <c r="BD8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>19</v>
       </c>
@@ -2261,8 +2293,8 @@
       <c r="O9">
         <v>5</v>
       </c>
-      <c r="P9" s="19" t="s">
-        <v>70</v>
+      <c r="P9" s="33">
+        <v>1</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4" t="s">
@@ -2276,55 +2308,58 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
-      <c r="AA9" s="10" t="s">
-        <v>46</v>
-      </c>
+      <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
-      <c r="AC9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
+      <c r="AC9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF9" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="AG9" s="4"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9">
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9">
         <v>5</v>
       </c>
-      <c r="AJ9" s="7">
+      <c r="AL9" s="7">
         <v>2</v>
       </c>
-      <c r="AK9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
+      <c r="AM9" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="AN9" s="4"/>
-      <c r="AO9" s="9"/>
+      <c r="AO9" s="4"/>
       <c r="AP9" s="4"/>
       <c r="AQ9" s="4"/>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT9" s="10"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4"/>
       <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="AV9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW9" s="10"/>
       <c r="AX9" s="4"/>
       <c r="AY9" s="4"/>
-      <c r="AZ9" s="7">
+      <c r="AZ9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA9" s="4"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="7">
         <v>8</v>
       </c>
-      <c r="BA9">
+      <c r="BD9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>18</v>
       </c>
@@ -2381,53 +2416,56 @@
         <v>46</v>
       </c>
       <c r="Z10" s="4"/>
-      <c r="AA10" s="10"/>
+      <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
-      <c r="AC10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF10" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="AG10" s="4"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10">
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10">
         <v>7</v>
       </c>
-      <c r="AJ10" s="7">
+      <c r="AL10" s="7">
         <v>1</v>
       </c>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
-      <c r="AN10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO10" s="9"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
       <c r="AP10" s="4"/>
-      <c r="AQ10" s="4"/>
-      <c r="AR10" s="4"/>
-      <c r="AS10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT10" s="10"/>
+      <c r="AQ10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
       <c r="AU10" s="4"/>
-      <c r="AV10" s="4"/>
-      <c r="AW10" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="AV10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW10" s="10"/>
       <c r="AX10" s="4"/>
       <c r="AY10" s="4"/>
-      <c r="AZ10" s="7">
+      <c r="AZ10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="7">
         <v>8</v>
       </c>
-      <c r="BA10">
+      <c r="BD10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>17</v>
       </c>
@@ -2482,53 +2520,56 @@
       </c>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
-      <c r="AA11" s="10"/>
+      <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
-      <c r="AC11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF11" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="AG11" s="4"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11">
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11">
         <v>6</v>
       </c>
-      <c r="AJ11" s="7">
+      <c r="AL11" s="7">
         <v>2</v>
       </c>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
-      <c r="AO11" s="9"/>
+      <c r="AO11" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="AP11" s="4"/>
       <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT11" s="10"/>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
-      <c r="AV11" s="4"/>
-      <c r="AW11" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="AV11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW11" s="10"/>
       <c r="AX11" s="4"/>
       <c r="AY11" s="4"/>
-      <c r="AZ11" s="7">
+      <c r="AZ11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="7">
         <v>10</v>
       </c>
-      <c r="BA11">
+      <c r="BD11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
@@ -2583,57 +2624,60 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
-      <c r="AA12" s="10"/>
+      <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
-      <c r="AC12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF12" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="AG12" s="4"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12">
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12">
         <v>3</v>
       </c>
-      <c r="AJ12" s="7">
+      <c r="AL12" s="7">
         <v>3</v>
       </c>
-      <c r="AK12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="9"/>
-      <c r="AP12" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="AM12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
       <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
+      <c r="AR12" s="9"/>
       <c r="AS12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AT12" s="10"/>
+      <c r="AT12" s="4"/>
       <c r="AU12" s="4"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="AV12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW12" s="10"/>
       <c r="AX12" s="4"/>
       <c r="AY12" s="4"/>
-      <c r="AZ12" s="7">
+      <c r="AZ12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="7">
         <v>10</v>
       </c>
-      <c r="BA12">
+      <c r="BD12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>15</v>
       </c>
@@ -2688,55 +2732,58 @@
         <v>46</v>
       </c>
       <c r="Z13" s="4"/>
-      <c r="AA13" s="10"/>
+      <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
-      <c r="AC13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF13" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="AG13" s="4"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13">
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13">
         <v>1</v>
       </c>
-      <c r="AJ13" s="7">
+      <c r="AL13" s="7">
         <v>2</v>
       </c>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="AM13" s="4"/>
-      <c r="AN13" s="4"/>
-      <c r="AO13" s="9"/>
-      <c r="AP13" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="AN13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
       <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
+      <c r="AR13" s="9"/>
       <c r="AS13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AT13" s="10"/>
+      <c r="AT13" s="4"/>
       <c r="AU13" s="4"/>
       <c r="AV13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AW13" s="4"/>
+      <c r="AW13" s="10"/>
       <c r="AX13" s="4"/>
-      <c r="AY13" s="4"/>
-      <c r="AZ13" s="7">
+      <c r="AY13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="7">
         <v>8</v>
       </c>
-      <c r="BA13">
+      <c r="BD13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2791,53 +2838,56 @@
         <v>46</v>
       </c>
       <c r="Z14" s="4"/>
-      <c r="AA14" s="10"/>
+      <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
-      <c r="AC14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF14" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="AG14" s="4"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14">
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14">
         <v>5</v>
       </c>
-      <c r="AJ14" s="7">
+      <c r="AL14" s="7">
         <v>3</v>
       </c>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="AM14" s="4"/>
-      <c r="AN14" s="4"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="AN14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="4"/>
-      <c r="AT14" s="10"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT14" s="4"/>
       <c r="AU14" s="4"/>
-      <c r="AV14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="10"/>
       <c r="AX14" s="4"/>
-      <c r="AY14" s="4"/>
-      <c r="AZ14" s="7">
+      <c r="AY14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="7">
         <v>7</v>
       </c>
-      <c r="BA14">
+      <c r="BD14">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2876,7 +2926,7 @@
         <v>6</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -2892,57 +2942,60 @@
       </c>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
-      <c r="AA15" s="10"/>
+      <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
-      <c r="AC15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF15" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="AG15" s="4"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15">
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15">
         <v>7</v>
       </c>
-      <c r="AJ15" s="7">
+      <c r="AL15" s="7">
         <v>5</v>
       </c>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN15" s="4"/>
-      <c r="AO15" s="9"/>
-      <c r="AP15" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
+      <c r="AR15" s="9"/>
       <c r="AS15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AT15" s="10"/>
+      <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
-      <c r="AV15" s="4"/>
-      <c r="AW15" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="AV15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW15" s="10"/>
       <c r="AX15" s="4"/>
       <c r="AY15" s="4"/>
-      <c r="AZ15" s="7">
+      <c r="AZ15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="7">
         <v>8</v>
       </c>
-      <c r="BA15">
+      <c r="BD15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -2999,53 +3052,56 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
-      <c r="AA16" s="10"/>
+      <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
-      <c r="AC16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD16" s="9"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="4"/>
       <c r="AE16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16">
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16">
         <v>0</v>
       </c>
-      <c r="AJ16" s="7">
+      <c r="AL16" s="7">
         <v>5</v>
       </c>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="4"/>
       <c r="AM16" s="4"/>
-      <c r="AN16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO16" s="9"/>
-      <c r="AP16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="AQ16" s="4"/>
-      <c r="AR16" s="4"/>
-      <c r="AS16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT16" s="10"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
       <c r="AV16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AW16" s="4"/>
+      <c r="AW16" s="10"/>
       <c r="AX16" s="4"/>
-      <c r="AY16" s="4"/>
-      <c r="AZ16" s="7">
+      <c r="AY16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="4"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="7">
         <v>8</v>
       </c>
-      <c r="BA16">
+      <c r="BD16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
@@ -3104,59 +3160,62 @@
         <v>46</v>
       </c>
       <c r="Z17" s="4"/>
-      <c r="AA17" s="10"/>
+      <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
-      <c r="AC17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF17" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="AG17" s="4"/>
-      <c r="AH17" s="10"/>
-      <c r="AI17">
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17">
         <v>6</v>
       </c>
-      <c r="AJ17" s="7">
+      <c r="AL17" s="7">
         <v>5</v>
       </c>
-      <c r="AK17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL17" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="AM17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AN17" s="4"/>
-      <c r="AO17" s="9"/>
-      <c r="AP17" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="AN17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP17" s="4"/>
       <c r="AQ17" s="4"/>
-      <c r="AR17" s="4"/>
+      <c r="AR17" s="9"/>
       <c r="AS17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AT17" s="10"/>
+      <c r="AT17" s="4"/>
       <c r="AU17" s="4"/>
       <c r="AV17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AW17" s="4"/>
+      <c r="AW17" s="10"/>
       <c r="AX17" s="4"/>
-      <c r="AY17" s="4"/>
-      <c r="AZ17" s="7">
+      <c r="AY17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="7">
         <v>8</v>
       </c>
-      <c r="BA17">
+      <c r="BD17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -3195,7 +3254,7 @@
         <v>10</v>
       </c>
       <c r="P18" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q18" s="4" t="s">
         <v>46</v>
@@ -3213,53 +3272,56 @@
         <v>46</v>
       </c>
       <c r="Z18" s="4"/>
-      <c r="AA18" s="10"/>
+      <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
-      <c r="AC18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF18" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="AG18" s="4"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18">
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18">
         <v>2</v>
       </c>
-      <c r="AJ18" s="7">
+      <c r="AL18" s="7">
         <v>8</v>
       </c>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
       <c r="AM18" s="4"/>
-      <c r="AN18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO18" s="9"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
       <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT18" s="10"/>
+      <c r="AQ18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR18" s="9"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
       <c r="AU18" s="4"/>
       <c r="AV18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AW18" s="4"/>
+      <c r="AW18" s="10"/>
       <c r="AX18" s="4"/>
-      <c r="AY18" s="4"/>
-      <c r="AZ18" s="7">
+      <c r="AY18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="7">
         <v>4</v>
       </c>
-      <c r="BA18">
+      <c r="BD18">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -3305,7 +3367,7 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V19" s="9"/>
       <c r="W19" s="4"/>
@@ -3314,53 +3376,56 @@
       </c>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
-      <c r="AA19" s="10"/>
+      <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
-      <c r="AC19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF19" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="AG19" s="4"/>
-      <c r="AH19" s="10"/>
-      <c r="AI19">
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19">
         <v>4</v>
       </c>
-      <c r="AJ19" s="7">
+      <c r="AL19" s="7">
         <v>10</v>
       </c>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
       <c r="AM19" s="4"/>
-      <c r="AN19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO19" s="9"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
       <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT19" s="10"/>
+      <c r="AQ19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR19" s="9"/>
+      <c r="AS19" s="4"/>
+      <c r="AT19" s="4"/>
       <c r="AU19" s="4"/>
       <c r="AV19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AW19" s="4"/>
+      <c r="AW19" s="10"/>
       <c r="AX19" s="4"/>
-      <c r="AY19" s="4"/>
-      <c r="AZ19" s="7">
+      <c r="AY19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="7">
         <v>7</v>
       </c>
-      <c r="BA19">
+      <c r="BD19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -3415,53 +3480,56 @@
       </c>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
-      <c r="AA20" s="10"/>
+      <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
-      <c r="AC20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD20" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF20" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="AG20" s="4"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20">
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20">
         <v>9</v>
       </c>
-      <c r="AJ20" s="7">
+      <c r="AL20" s="7">
         <v>1</v>
       </c>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
       <c r="AM20" s="4"/>
-      <c r="AN20" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO20" s="9"/>
-      <c r="AP20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
+      <c r="AR20" s="9"/>
       <c r="AS20" s="4"/>
-      <c r="AT20" s="10" t="s">
-        <v>72</v>
-      </c>
+      <c r="AT20" s="4"/>
       <c r="AU20" s="4"/>
       <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
+      <c r="AW20" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="AX20" s="4"/>
-      <c r="AY20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ20" s="7">
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
+      <c r="BA20" s="4"/>
+      <c r="BB20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC20" s="7">
         <v>9</v>
       </c>
-      <c r="BA20">
+      <c r="BD20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
@@ -3524,59 +3592,62 @@
       <c r="Z21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AA21" s="10"/>
+      <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
-      <c r="AC21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD21" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF21" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="AG21" s="4"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21">
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21">
         <v>8</v>
       </c>
-      <c r="AJ21" s="7">
+      <c r="AL21" s="7">
         <v>4</v>
       </c>
-      <c r="AK21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL21" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="AM21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AN21" s="4"/>
-      <c r="AO21" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP21" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="AN21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP21" s="4"/>
       <c r="AQ21" s="4"/>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="4"/>
-      <c r="AT21" s="10"/>
+      <c r="AR21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT21" s="4"/>
       <c r="AU21" s="4"/>
-      <c r="AV21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW21" s="4"/>
+      <c r="AV21" s="4"/>
+      <c r="AW21" s="10"/>
       <c r="AX21" s="4"/>
-      <c r="AY21" s="4"/>
-      <c r="AZ21" s="7">
+      <c r="AY21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ21" s="4"/>
+      <c r="BA21" s="4"/>
+      <c r="BB21" s="4"/>
+      <c r="BC21" s="7">
         <v>7</v>
       </c>
-      <c r="BA21">
+      <c r="BD21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
@@ -3631,53 +3702,56 @@
       </c>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
-      <c r="AA22" s="10"/>
+      <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
-      <c r="AC22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD22" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF22" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="AG22" s="4"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22">
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22">
         <v>4</v>
       </c>
-      <c r="AJ22" s="7">
+      <c r="AL22" s="7">
         <v>3</v>
       </c>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="AM22" s="4"/>
       <c r="AN22" s="4"/>
-      <c r="AO22" s="9"/>
+      <c r="AO22" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="AP22" s="4"/>
       <c r="AQ22" s="4"/>
-      <c r="AR22" s="4"/>
-      <c r="AS22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT22" s="10"/>
+      <c r="AR22" s="9"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
       <c r="AU22" s="4"/>
-      <c r="AV22" s="4"/>
-      <c r="AW22" s="4"/>
-      <c r="AX22" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="AV22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW22" s="10"/>
+      <c r="AX22" s="4"/>
       <c r="AY22" s="4"/>
-      <c r="AZ22" s="7">
+      <c r="AZ22" s="4"/>
+      <c r="BA22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="7">
         <v>9</v>
       </c>
-      <c r="BA22">
+      <c r="BD22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -3690,20 +3764,20 @@
       <c r="D23" s="7">
         <v>160.30000000000001</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="18">
         <v>25</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23">
         <v>169</v>
       </c>
       <c r="I23" s="7">
         <v>77</v>
       </c>
-      <c r="J23" s="33">
+      <c r="J23">
         <v>71</v>
       </c>
       <c r="K23" s="9" t="s">
@@ -3730,61 +3804,64 @@
       </c>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
-      <c r="AA23" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB23" s="4">
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="4">
         <v>2016</v>
       </c>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="9" t="s">
-        <v>46</v>
-      </c>
       <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
+      <c r="AF23" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="AG23" s="4"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23">
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23">
         <v>8</v>
       </c>
-      <c r="AJ23" s="7">
+      <c r="AL23" s="7">
         <v>7</v>
       </c>
-      <c r="AK23" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL23" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="AM23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AN23" s="4"/>
-      <c r="AO23" s="9"/>
-      <c r="AP23" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="AN23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP23" s="4"/>
       <c r="AQ23" s="4"/>
-      <c r="AR23" s="4"/>
+      <c r="AR23" s="9"/>
       <c r="AS23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AT23" s="10"/>
+      <c r="AT23" s="4"/>
       <c r="AU23" s="4"/>
       <c r="AV23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AW23" s="4"/>
+      <c r="AW23" s="10"/>
       <c r="AX23" s="4"/>
-      <c r="AY23" s="4"/>
-      <c r="AZ23" s="7">
+      <c r="AY23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="4"/>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="7">
         <v>5</v>
       </c>
-      <c r="BA23">
+      <c r="BD23">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -3797,18 +3874,18 @@
       <c r="D24" s="7">
         <v>139.9</v>
       </c>
-      <c r="E24" s="35"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="9"/>
       <c r="G24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24">
         <v>188</v>
       </c>
       <c r="I24" s="7">
         <v>92</v>
       </c>
-      <c r="J24" s="33">
+      <c r="J24">
         <v>76</v>
       </c>
       <c r="K24" s="9"/>
@@ -3837,55 +3914,58 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
-      <c r="AA24" s="10"/>
+      <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
-      <c r="AC24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD24" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF24" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="AG24" s="4"/>
-      <c r="AH24" s="10"/>
-      <c r="AI24">
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24">
         <v>8</v>
       </c>
-      <c r="AJ24" s="7">
+      <c r="AL24" s="7">
         <v>3</v>
       </c>
-      <c r="AK24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL24" s="4"/>
       <c r="AM24" s="4" t="s">
         <v>46</v>
       </c>
       <c r="AN24" s="4"/>
-      <c r="AO24" s="9"/>
+      <c r="AO24" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="AP24" s="4"/>
       <c r="AQ24" s="4"/>
-      <c r="AR24" s="4"/>
-      <c r="AS24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT24" s="10"/>
+      <c r="AR24" s="9"/>
+      <c r="AS24" s="4"/>
+      <c r="AT24" s="4"/>
       <c r="AU24" s="4"/>
       <c r="AV24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AW24" s="4"/>
+      <c r="AW24" s="10"/>
       <c r="AX24" s="4"/>
-      <c r="AY24" s="4"/>
-      <c r="AZ24" s="7">
+      <c r="AY24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ24" s="4"/>
+      <c r="BA24" s="4"/>
+      <c r="BB24" s="4"/>
+      <c r="BC24" s="7">
         <v>4</v>
       </c>
-      <c r="BA24">
+      <c r="BD24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -3898,18 +3978,20 @@
       <c r="D25" s="7">
         <v>149.6</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="18">
         <v>24</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25">
         <v>180</v>
       </c>
-      <c r="I25" s="36"/>
-      <c r="J25" s="33">
+      <c r="I25" s="33">
+        <v>87</v>
+      </c>
+      <c r="J25">
         <v>74.400000000000006</v>
       </c>
       <c r="K25" s="9"/>
@@ -3940,57 +4022,60 @@
       </c>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
-      <c r="AA25" s="10"/>
+      <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
-      <c r="AC25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF25" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="AG25" s="4"/>
-      <c r="AH25" s="10"/>
-      <c r="AI25">
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25">
         <v>7</v>
       </c>
-      <c r="AJ25" s="7">
+      <c r="AL25" s="7">
         <v>8</v>
       </c>
-      <c r="AK25" s="4"/>
-      <c r="AL25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN25" s="4"/>
-      <c r="AO25" s="9"/>
-      <c r="AP25" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP25" s="4"/>
       <c r="AQ25" s="4"/>
-      <c r="AR25" s="4"/>
+      <c r="AR25" s="9"/>
       <c r="AS25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AT25" s="10"/>
+      <c r="AT25" s="4"/>
       <c r="AU25" s="4"/>
-      <c r="AV25" s="4"/>
-      <c r="AW25" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="AV25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW25" s="10"/>
       <c r="AX25" s="4"/>
       <c r="AY25" s="4"/>
-      <c r="AZ25" s="7">
+      <c r="AZ25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA25" s="4"/>
+      <c r="BB25" s="4"/>
+      <c r="BC25" s="7">
         <v>9</v>
       </c>
-      <c r="BA25">
+      <c r="BD25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -4003,20 +4088,20 @@
       <c r="D26" s="7">
         <v>154</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="18">
         <v>22</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26">
         <v>178</v>
       </c>
       <c r="I26" s="7">
         <v>78</v>
       </c>
-      <c r="J26" s="33">
+      <c r="J26">
         <v>74.5</v>
       </c>
       <c r="K26" s="9" t="s">
@@ -4045,53 +4130,56 @@
         <v>46</v>
       </c>
       <c r="Z26" s="4"/>
-      <c r="AA26" s="10"/>
+      <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
-      <c r="AC26" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD26" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF26" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="AG26" s="4"/>
-      <c r="AH26" s="10"/>
-      <c r="AI26">
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26">
         <v>5</v>
       </c>
-      <c r="AJ26" s="7">
+      <c r="AL26" s="7">
         <v>1</v>
       </c>
-      <c r="AK26" s="4"/>
-      <c r="AL26" s="4"/>
-      <c r="AM26" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="AM26" s="4"/>
       <c r="AN26" s="4"/>
-      <c r="AO26" s="9"/>
+      <c r="AO26" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="AP26" s="4"/>
-      <c r="AQ26" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR26" s="4"/>
+      <c r="AQ26" s="4"/>
+      <c r="AR26" s="9"/>
       <c r="AS26" s="4"/>
-      <c r="AT26" s="10"/>
+      <c r="AT26" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="AU26" s="4"/>
-      <c r="AV26" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW26" s="4"/>
+      <c r="AV26" s="4"/>
+      <c r="AW26" s="10"/>
       <c r="AX26" s="4"/>
-      <c r="AY26" s="4"/>
-      <c r="AZ26" s="7">
+      <c r="AY26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ26" s="4"/>
+      <c r="BA26" s="4"/>
+      <c r="BB26" s="4"/>
+      <c r="BC26" s="7">
         <v>4</v>
       </c>
-      <c r="BA26">
+      <c r="BD26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -4104,20 +4192,20 @@
       <c r="D27" s="7">
         <v>145.80000000000001</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="18">
         <v>23</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27">
         <v>182</v>
       </c>
       <c r="I27" s="7">
         <v>85</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J27">
         <v>75</v>
       </c>
       <c r="K27" s="9" t="s">
@@ -4146,69 +4234,81 @@
       </c>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
-      <c r="AA27" s="10"/>
+      <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
-      <c r="AC27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD27" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF27" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="AG27" s="4"/>
-      <c r="AH27" s="10"/>
-      <c r="AI27" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK27" s="4"/>
-      <c r="AL27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL27" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="AM27" s="4"/>
-      <c r="AN27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO27" s="9"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4"/>
       <c r="AP27" s="4"/>
-      <c r="AQ27" s="4"/>
-      <c r="AR27" s="4"/>
-      <c r="AS27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT27" s="10"/>
+      <c r="AQ27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR27" s="9"/>
+      <c r="AS27" s="4"/>
+      <c r="AT27" s="4"/>
       <c r="AU27" s="4"/>
-      <c r="AV27" s="4"/>
-      <c r="AW27" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="AV27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW27" s="10"/>
       <c r="AX27" s="4"/>
       <c r="AY27" s="4"/>
-      <c r="AZ27" s="7">
+      <c r="AZ27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA27" s="4"/>
+      <c r="BB27" s="4"/>
+      <c r="BC27" s="7">
         <v>7</v>
       </c>
-      <c r="BA27">
+      <c r="BD27">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="AO1:AT1"/>
-    <mergeCell ref="AU1:AY1"/>
-    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="AM1:AQ1"/>
+    <mergeCell ref="AR1:AW1"/>
+    <mergeCell ref="AX1:BB1"/>
+    <mergeCell ref="V1:AC1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C77408A9657D354AA2EA36B9C44B3D8B" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="35b7b4497c9b8f90ebc8a365f5a72516">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4073c1de-41dc-45a4-8e11-a80c309008b0" xmlns:ns3="013bd0e6-5a96-48c7-9517-6e2e630d5e76" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="10f9768fe295fb6f940ad6fb9ae135bb" ns2:_="" ns3:_="">
     <xsd:import namespace="4073c1de-41dc-45a4-8e11-a80c309008b0"/>
@@ -4401,15 +4501,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4422,13 +4513,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E58085-4949-4757-B14E-19CAFC17456B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F9F41C6-20E3-42BB-83D6-45629D2E52BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F9F41C6-20E3-42BB-83D6-45629D2E52BB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E58085-4949-4757-B14E-19CAFC17456B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4073c1de-41dc-45a4-8e11-a80c309008b0"/>
+    <ds:schemaRef ds:uri="013bd0e6-5a96-48c7-9517-6e2e630d5e76"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCA26C64-A250-4FCD-AAAE-4E8B17C6BE2C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCA26C64-A250-4FCD-AAAE-4E8B17C6BE2C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4073c1de-41dc-45a4-8e11-a80c309008b0"/>
+    <ds:schemaRef ds:uri="013bd0e6-5a96-48c7-9517-6e2e630d5e76"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Auswertung_Studie.xlsx
+++ b/Auswertung_Studie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mweiler\Documents\GitHub\MMI_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8967A2DE-E276-4850-A476-1897A6DF09A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCAAC79B-F387-42AC-A877-AD05025AC316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="0" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="74">
   <si>
     <t>Probandennr.</t>
   </si>
@@ -257,13 +257,7 @@
     <t>Proband Nr.</t>
   </si>
   <si>
-    <t>1-2</t>
-  </si>
-  <si>
     <t>Hüfte</t>
-  </si>
-  <si>
-    <t>3-4</t>
   </si>
   <si>
     <t>/</t>
@@ -481,9 +475,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -500,6 +491,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -518,8 +511,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1328,7 +1322,7 @@
   <dimension ref="A1:BD27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE31" sqref="AE31"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,10 +1379,10 @@
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="29"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1398,74 +1392,74 @@
       <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="29"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="30"/>
       <c r="O1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="P1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="30" t="s">
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="27" t="s">
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="28" t="s">
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="29"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="30"/>
       <c r="AK1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="AL1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AM1" s="27" t="s">
+      <c r="AM1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="28" t="s">
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="28"/>
+      <c r="AR1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
-      <c r="AW1" s="29"/>
-      <c r="AX1" s="27" t="s">
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="28"/>
+      <c r="AW1" s="30"/>
+      <c r="AX1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="27"/>
-      <c r="BB1" s="27"/>
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="28"/>
+      <c r="BB1" s="28"/>
       <c r="BC1" s="11" t="s">
         <v>18</v>
       </c>
@@ -1536,7 +1530,7 @@
         <v>68</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AC2" s="15" t="s">
         <v>57</v>
@@ -1574,10 +1568,10 @@
         <v>28</v>
       </c>
       <c r="AP2" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AQ2" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AR2" s="14" t="s">
         <v>58</v>
@@ -1595,7 +1589,7 @@
         <v>59</v>
       </c>
       <c r="AW2" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AX2" s="13" t="s">
         <v>61</v>
@@ -1674,15 +1668,15 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="10"/>
       <c r="AD3" s="4"/>
-      <c r="AE3" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF3" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
+      <c r="AE3" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
       <c r="AJ3" s="10"/>
       <c r="AK3">
         <v>5</v>
@@ -1767,28 +1761,28 @@
       </c>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
-      <c r="V4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF4" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
+      <c r="V4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF4" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
       <c r="AJ4" s="10"/>
       <c r="AK4">
         <v>8</v>
@@ -1806,19 +1800,19 @@
         <v>46</v>
       </c>
       <c r="AP4" s="4"/>
-      <c r="AQ4" s="22"/>
-      <c r="AR4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS4" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT4" s="22"/>
-      <c r="AU4" s="22"/>
-      <c r="AV4" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW4" s="23"/>
+      <c r="AQ4" s="21"/>
+      <c r="AR4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT4" s="21"/>
+      <c r="AU4" s="21"/>
+      <c r="AV4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW4" s="22"/>
       <c r="AX4" s="4"/>
       <c r="AY4" s="4"/>
       <c r="AZ4" s="4" t="s">
@@ -1892,18 +1886,18 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="10"/>
       <c r="AD5" s="4"/>
-      <c r="AE5" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF5" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG5" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="23"/>
+      <c r="AE5" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF5" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG5" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="23"/>
+      <c r="AJ5" s="22"/>
       <c r="AK5">
         <v>1</v>
       </c>
@@ -1917,14 +1911,14 @@
         <v>46</v>
       </c>
       <c r="AQ5" s="4"/>
-      <c r="AR5" s="21"/>
-      <c r="AS5" s="22"/>
-      <c r="AT5" s="22"/>
-      <c r="AU5" s="22"/>
-      <c r="AV5" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW5" s="23" t="s">
+      <c r="AR5" s="20"/>
+      <c r="AS5" s="21"/>
+      <c r="AT5" s="21"/>
+      <c r="AU5" s="21"/>
+      <c r="AV5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW5" s="22" t="s">
         <v>46</v>
       </c>
       <c r="AX5" s="4"/>
@@ -2000,15 +1994,15 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="10"/>
       <c r="AD6" s="4"/>
-      <c r="AE6" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF6" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="24"/>
+      <c r="AE6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF6" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
       <c r="AJ6" s="10"/>
       <c r="AK6">
         <v>8</v>
@@ -2104,15 +2098,15 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="10"/>
       <c r="AD7" s="4"/>
-      <c r="AE7" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF7" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24"/>
-      <c r="AI7" s="24"/>
+      <c r="AE7" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF7" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG7" s="23"/>
+      <c r="AH7" s="23"/>
+      <c r="AI7" s="23"/>
       <c r="AJ7" s="10"/>
       <c r="AK7">
         <v>8</v>
@@ -2197,28 +2191,28 @@
         <v>46</v>
       </c>
       <c r="U8" s="4"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF8" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG8" s="24"/>
-      <c r="AH8" s="24"/>
-      <c r="AI8" s="24"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="23"/>
       <c r="AJ8" s="10"/>
       <c r="AK8">
         <v>8</v>
@@ -2293,7 +2287,7 @@
       <c r="O9">
         <v>5</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="26">
         <v>1</v>
       </c>
       <c r="Q9" s="4"/>
@@ -2925,8 +2919,8 @@
       <c r="O15">
         <v>6</v>
       </c>
-      <c r="P15" s="20" t="s">
-        <v>70</v>
+      <c r="P15" s="34">
+        <v>1.5</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -3253,8 +3247,8 @@
       <c r="O18">
         <v>10</v>
       </c>
-      <c r="P18" s="20" t="s">
-        <v>72</v>
+      <c r="P18" s="34">
+        <v>3.5</v>
       </c>
       <c r="Q18" s="4" t="s">
         <v>46</v>
@@ -3367,7 +3361,7 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V19" s="9"/>
       <c r="W19" s="4"/>
@@ -3874,7 +3868,7 @@
       <c r="D24" s="7">
         <v>139.9</v>
       </c>
-      <c r="E24" s="26"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="9"/>
       <c r="G24" s="10" t="s">
         <v>46</v>
@@ -3988,7 +3982,7 @@
       <c r="H25">
         <v>180</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="26">
         <v>87</v>
       </c>
       <c r="J25">
@@ -4248,7 +4242,7 @@
       <c r="AH27" s="4"/>
       <c r="AI27" s="4"/>
       <c r="AJ27" s="10"/>
-      <c r="AK27" s="34" t="s">
+      <c r="AK27" s="27" t="s">
         <v>46</v>
       </c>
       <c r="AL27" s="19" t="s">
@@ -4300,15 +4294,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C77408A9657D354AA2EA36B9C44B3D8B" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="35b7b4497c9b8f90ebc8a365f5a72516">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4073c1de-41dc-45a4-8e11-a80c309008b0" xmlns:ns3="013bd0e6-5a96-48c7-9517-6e2e630d5e76" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="10f9768fe295fb6f940ad6fb9ae135bb" ns2:_="" ns3:_="">
     <xsd:import namespace="4073c1de-41dc-45a4-8e11-a80c309008b0"/>
@@ -4501,6 +4486,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4513,14 +4507,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F9F41C6-20E3-42BB-83D6-45629D2E52BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E58085-4949-4757-B14E-19CAFC17456B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4539,6 +4525,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F9F41C6-20E3-42BB-83D6-45629D2E52BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCA26C64-A250-4FCD-AAAE-4E8B17C6BE2C}">
   <ds:schemaRefs>

--- a/Auswertung_Studie.xlsx
+++ b/Auswertung_Studie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mweiler\Documents\GitHub\MMI_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCAAC79B-F387-42AC-A877-AD05025AC316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5F1833-0A03-47A8-9721-92FAC4172E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="0" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="73">
   <si>
     <t>Probandennr.</t>
   </si>
@@ -258,9 +258,6 @@
   </si>
   <si>
     <t>Hüfte</t>
-  </si>
-  <si>
-    <t>/</t>
   </si>
   <si>
     <t>Crosscountry</t>
@@ -493,6 +490,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -510,9 +510,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1322,7 +1319,7 @@
   <dimension ref="A1:BD27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,10 +1376,10 @@
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="30"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1392,74 +1389,74 @@
       <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="30"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="31"/>
       <c r="O1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="P1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="31" t="s">
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="28" t="s">
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="29" t="s">
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="30"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="31"/>
       <c r="AK1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="AL1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AM1" s="28" t="s">
+      <c r="AM1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28"/>
-      <c r="AR1" s="29" t="s">
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28"/>
-      <c r="AW1" s="30"/>
-      <c r="AX1" s="28" t="s">
+      <c r="AS1" s="29"/>
+      <c r="AT1" s="29"/>
+      <c r="AU1" s="29"/>
+      <c r="AV1" s="29"/>
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="28"/>
-      <c r="BB1" s="28"/>
+      <c r="AY1" s="29"/>
+      <c r="AZ1" s="29"/>
+      <c r="BA1" s="29"/>
+      <c r="BB1" s="29"/>
       <c r="BC1" s="11" t="s">
         <v>18</v>
       </c>
@@ -1530,7 +1527,7 @@
         <v>68</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC2" s="15" t="s">
         <v>57</v>
@@ -1571,7 +1568,7 @@
         <v>70</v>
       </c>
       <c r="AQ2" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AR2" s="14" t="s">
         <v>58</v>
@@ -2919,7 +2916,7 @@
       <c r="O15">
         <v>6</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="28">
         <v>1.5</v>
       </c>
       <c r="Q15" s="4"/>
@@ -3247,7 +3244,7 @@
       <c r="O18">
         <v>10</v>
       </c>
-      <c r="P18" s="34">
+      <c r="P18" s="28">
         <v>3.5</v>
       </c>
       <c r="Q18" s="4" t="s">
@@ -3361,7 +3358,7 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="V19" s="9"/>
       <c r="W19" s="4"/>
@@ -4294,6 +4291,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C77408A9657D354AA2EA36B9C44B3D8B" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="35b7b4497c9b8f90ebc8a365f5a72516">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4073c1de-41dc-45a4-8e11-a80c309008b0" xmlns:ns3="013bd0e6-5a96-48c7-9517-6e2e630d5e76" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="10f9768fe295fb6f940ad6fb9ae135bb" ns2:_="" ns3:_="">
     <xsd:import namespace="4073c1de-41dc-45a4-8e11-a80c309008b0"/>
@@ -4486,15 +4492,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4507,6 +4504,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F9F41C6-20E3-42BB-83D6-45629D2E52BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E58085-4949-4757-B14E-19CAFC17456B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4525,14 +4530,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F9F41C6-20E3-42BB-83D6-45629D2E52BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCA26C64-A250-4FCD-AAAE-4E8B17C6BE2C}">
   <ds:schemaRefs>

--- a/Auswertung_Studie.xlsx
+++ b/Auswertung_Studie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mweiler\Documents\GitHub\MMI_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5F1833-0A03-47A8-9721-92FAC4172E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A263D8-C3AE-44E9-830C-8DE73FC3AECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="0" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstTry" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="73">
   <si>
     <t>Probandennr.</t>
   </si>
@@ -279,24 +279,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -429,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -471,7 +459,6 @@
       <alignment textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -487,9 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -511,6 +496,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1319,7 +1306,7 @@
   <dimension ref="A1:BD27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+      <selection activeCell="AL25" sqref="AL25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,10 +1363,10 @@
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="31"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1389,74 +1376,74 @@
       <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="31"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="28"/>
       <c r="O1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="P1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="32" t="s">
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="29" t="s">
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="30" t="s">
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="31"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="28"/>
       <c r="AK1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="AL1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AM1" s="29" t="s">
+      <c r="AM1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="30" t="s">
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="29"/>
-      <c r="AU1" s="29"/>
-      <c r="AV1" s="29"/>
-      <c r="AW1" s="31"/>
-      <c r="AX1" s="29" t="s">
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="AY1" s="29"/>
-      <c r="AZ1" s="29"/>
-      <c r="BA1" s="29"/>
-      <c r="BB1" s="29"/>
+      <c r="AY1" s="26"/>
+      <c r="AZ1" s="26"/>
+      <c r="BA1" s="26"/>
+      <c r="BB1" s="26"/>
       <c r="BC1" s="11" t="s">
         <v>18</v>
       </c>
@@ -1665,15 +1652,15 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="10"/>
       <c r="AD3" s="4"/>
-      <c r="AE3" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF3" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="23"/>
+      <c r="AE3" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
       <c r="AJ3" s="10"/>
       <c r="AK3">
         <v>5</v>
@@ -1758,28 +1745,28 @@
       </c>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
-      <c r="V4" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF4" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
+      <c r="V4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF4" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
       <c r="AJ4" s="10"/>
       <c r="AK4">
         <v>8</v>
@@ -1797,19 +1784,19 @@
         <v>46</v>
       </c>
       <c r="AP4" s="4"/>
-      <c r="AQ4" s="21"/>
-      <c r="AR4" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT4" s="21"/>
-      <c r="AU4" s="21"/>
-      <c r="AV4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW4" s="22"/>
+      <c r="AQ4" s="20"/>
+      <c r="AR4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT4" s="20"/>
+      <c r="AU4" s="20"/>
+      <c r="AV4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW4" s="21"/>
       <c r="AX4" s="4"/>
       <c r="AY4" s="4"/>
       <c r="AZ4" s="4" t="s">
@@ -1883,18 +1870,18 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="10"/>
       <c r="AD5" s="4"/>
-      <c r="AE5" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF5" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG5" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH5" s="23"/>
-      <c r="AI5" s="23"/>
-      <c r="AJ5" s="22"/>
+      <c r="AE5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF5" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="21"/>
       <c r="AK5">
         <v>1</v>
       </c>
@@ -1908,14 +1895,14 @@
         <v>46</v>
       </c>
       <c r="AQ5" s="4"/>
-      <c r="AR5" s="20"/>
-      <c r="AS5" s="21"/>
-      <c r="AT5" s="21"/>
-      <c r="AU5" s="21"/>
-      <c r="AV5" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW5" s="22" t="s">
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="20"/>
+      <c r="AU5" s="20"/>
+      <c r="AV5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW5" s="21" t="s">
         <v>46</v>
       </c>
       <c r="AX5" s="4"/>
@@ -1991,15 +1978,15 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="10"/>
       <c r="AD6" s="4"/>
-      <c r="AE6" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF6" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG6" s="23"/>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="23"/>
+      <c r="AE6" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
       <c r="AJ6" s="10"/>
       <c r="AK6">
         <v>8</v>
@@ -2095,15 +2082,15 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="10"/>
       <c r="AD7" s="4"/>
-      <c r="AE7" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF7" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG7" s="23"/>
-      <c r="AH7" s="23"/>
-      <c r="AI7" s="23"/>
+      <c r="AE7" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF7" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22"/>
       <c r="AJ7" s="10"/>
       <c r="AK7">
         <v>8</v>
@@ -2188,28 +2175,28 @@
         <v>46</v>
       </c>
       <c r="U8" s="4"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF8" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG8" s="23"/>
-      <c r="AH8" s="23"/>
-      <c r="AI8" s="23"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
       <c r="AJ8" s="10"/>
       <c r="AK8">
         <v>8</v>
@@ -2284,7 +2271,7 @@
       <c r="O9">
         <v>5</v>
       </c>
-      <c r="P9" s="26">
+      <c r="P9" s="24">
         <v>1</v>
       </c>
       <c r="Q9" s="4"/>
@@ -2916,7 +2903,7 @@
       <c r="O15">
         <v>6</v>
       </c>
-      <c r="P15" s="28">
+      <c r="P15" s="25">
         <v>1.5</v>
       </c>
       <c r="Q15" s="4"/>
@@ -3244,7 +3231,7 @@
       <c r="O18">
         <v>10</v>
       </c>
-      <c r="P18" s="28">
+      <c r="P18" s="25">
         <v>3.5</v>
       </c>
       <c r="Q18" s="4" t="s">
@@ -3780,7 +3767,9 @@
       <c r="O23">
         <v>13</v>
       </c>
-      <c r="P23" s="19"/>
+      <c r="P23" s="33">
+        <v>3</v>
+      </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4" t="s">
         <v>46</v>
@@ -3865,7 +3854,9 @@
       <c r="D24" s="7">
         <v>139.9</v>
       </c>
-      <c r="E24" s="25"/>
+      <c r="E24" s="32">
+        <v>23</v>
+      </c>
       <c r="F24" s="9"/>
       <c r="G24" s="10" t="s">
         <v>46</v>
@@ -3979,7 +3970,7 @@
       <c r="H25">
         <v>180</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="24">
         <v>87</v>
       </c>
       <c r="J25">
@@ -4239,11 +4230,11 @@
       <c r="AH27" s="4"/>
       <c r="AI27" s="4"/>
       <c r="AJ27" s="10"/>
-      <c r="AK27" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL27" s="19" t="s">
-        <v>46</v>
+      <c r="AK27" s="32">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="33">
+        <v>1</v>
       </c>
       <c r="AM27" s="4"/>
       <c r="AN27" s="4"/>
@@ -4291,15 +4282,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C77408A9657D354AA2EA36B9C44B3D8B" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="35b7b4497c9b8f90ebc8a365f5a72516">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4073c1de-41dc-45a4-8e11-a80c309008b0" xmlns:ns3="013bd0e6-5a96-48c7-9517-6e2e630d5e76" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="10f9768fe295fb6f940ad6fb9ae135bb" ns2:_="" ns3:_="">
     <xsd:import namespace="4073c1de-41dc-45a4-8e11-a80c309008b0"/>
@@ -4492,6 +4474,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4504,14 +4495,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F9F41C6-20E3-42BB-83D6-45629D2E52BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E58085-4949-4757-B14E-19CAFC17456B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4530,6 +4513,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F9F41C6-20E3-42BB-83D6-45629D2E52BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCA26C64-A250-4FCD-AAAE-4E8B17C6BE2C}">
   <ds:schemaRefs>
